--- a/Data/quiz/e4v3/gasoline.xlsx
+++ b/Data/quiz/e4v3/gasoline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/Exam Data_new/Data not used yet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{7F7D52C5-FE2C-41BF-8AB9-D4045161F7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870C07B3-8CD1-493B-AD56-8037FC81B7BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AAAD75-0C6E-4E99-B34C-BDED14737D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1665" windowWidth="9525" windowHeight="11385" xr2:uid="{21479118-C87B-47B5-9977-C9D3EDECC77F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21479118-C87B-47B5-9977-C9D3EDECC77F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
-    <t>Distance (in Miles)</t>
-  </si>
-  <si>
-    <t>Gasoline (in Gallons)</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t xml:space="preserve">a BYU-Idaho student records the number of </t>
   </si>
   <si>
@@ -54,9 +45,6 @@
     <t xml:space="preserve">Each time she purchases gasoline for her car, </t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>1/2</t>
   </si>
   <si>
@@ -208,6 +196,18 @@
   </si>
   <si>
     <t>over the course of one year.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>distance_in_miles</t>
+  </si>
+  <si>
+    <t>gasoline_in_gallons</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -561,9 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E303339-BDFB-4744-B47A-EE3DF627277B}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -575,21 +573,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>168.7</v>
@@ -598,12 +596,12 @@
         <v>5.69</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>157.1</v>
@@ -612,12 +610,12 @@
         <v>4.5</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>314.7</v>
@@ -626,12 +624,12 @@
         <v>9.59</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>261.60000000000002</v>
@@ -640,12 +638,12 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>319</v>
@@ -654,12 +652,12 @@
         <v>11.08</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>293.60000000000002</v>
@@ -668,12 +666,12 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>350.6</v>
@@ -684,7 +682,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>248.3</v>
@@ -695,7 +693,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>159.9</v>
@@ -706,7 +704,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>163.80000000000001</v>
@@ -717,7 +715,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>250.4</v>
@@ -728,7 +726,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>121</v>
@@ -739,7 +737,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>203.7</v>
@@ -750,7 +748,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>321.7</v>
@@ -761,7 +759,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>185.7</v>
@@ -772,7 +770,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>354.8</v>
@@ -783,7 +781,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>315.60000000000002</v>
@@ -794,7 +792,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>137.4</v>
@@ -805,7 +803,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>146.19999999999999</v>
@@ -816,7 +814,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>352.6</v>
@@ -827,7 +825,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>200.9</v>
@@ -838,7 +836,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>275.10000000000002</v>
@@ -849,7 +847,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>359.3</v>
@@ -860,7 +858,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>323.60000000000002</v>
@@ -871,7 +869,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>160.5</v>
@@ -882,7 +880,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>286.8</v>
@@ -893,7 +891,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>212.9</v>
@@ -904,7 +902,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>189</v>
@@ -915,7 +913,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>260.5</v>
@@ -926,7 +924,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>186.4</v>
@@ -937,7 +935,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>350</v>
@@ -948,7 +946,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>227.8</v>
@@ -959,7 +957,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>332.6</v>
@@ -970,7 +968,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>230.8</v>
@@ -981,7 +979,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>264.8</v>
@@ -992,7 +990,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>284.7</v>
@@ -1003,7 +1001,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>335.6</v>
@@ -1014,7 +1012,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>281.60000000000002</v>
@@ -1025,7 +1023,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>167.5</v>
@@ -1036,7 +1034,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>173</v>
@@ -1047,7 +1045,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>318.8</v>
@@ -1058,7 +1056,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>235.2</v>
@@ -1069,7 +1067,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>370.3</v>
@@ -1080,7 +1078,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>238.3</v>
@@ -1091,7 +1089,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>135.19999999999999</v>
@@ -1102,7 +1100,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>201.7</v>
@@ -1113,7 +1111,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>205.6</v>
@@ -1124,7 +1122,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>322</v>

--- a/Data/quiz/e4v3/gasoline.xlsx
+++ b/Data/quiz/e4v3/gasoline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AAAD75-0C6E-4E99-B34C-BDED14737D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E2719-9630-433E-8EC2-E455EA473220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21479118-C87B-47B5-9977-C9D3EDECC77F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{21479118-C87B-47B5-9977-C9D3EDECC77F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,15 +563,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -585,7 +585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -641,7 +641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -655,7 +655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -669,7 +669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -680,7 +680,7 @@
         <v>10.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -691,7 +691,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -702,7 +702,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -713,7 +713,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -724,7 +724,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -735,7 +735,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -746,7 +746,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -757,7 +757,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -768,7 +768,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -779,7 +779,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -790,7 +790,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -801,7 +801,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -812,7 +812,7 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -823,7 +823,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -834,7 +834,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -845,7 +845,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -856,7 +856,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -867,7 +867,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -878,7 +878,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -889,7 +889,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -900,7 +900,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -911,7 +911,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -933,7 +933,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -944,7 +944,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -955,7 +955,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -966,7 +966,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -977,7 +977,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -988,7 +988,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -999,7 +999,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
